--- a/Teacher_Details.xlsx
+++ b/Teacher_Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175A8BCA-A6C5-41AC-83A6-C9A6EF7934BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F459C0-61A2-4C16-821C-434CB6A3E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{90B41133-92FA-4E2A-9701-48DB32B639C9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="3" activeTab="4" xr2:uid="{90B41133-92FA-4E2A-9701-48DB32B639C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Details" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
   <si>
     <t>m.abdulmuqeet2023@gmail.com</t>
   </si>
@@ -116,18 +116,6 @@
   </si>
   <si>
     <t>MATH</t>
-  </si>
-  <si>
-    <t>Sub</t>
-  </si>
-  <si>
-    <t>Sub-S</t>
-  </si>
-  <si>
-    <t>Sub-M</t>
-  </si>
-  <si>
-    <t>Sub-J</t>
   </si>
 </sst>
 </file>
@@ -199,11 +187,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DB9195-ADD9-40AE-8B11-18D436CE23B6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +623,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,32 +636,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -681,124 +669,120 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -813,7 +797,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,32 +810,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -859,122 +843,120 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -991,7 +973,7 @@
   <dimension ref="A4:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,152 +986,148 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1165,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35564DE9-FAFB-416B-A5AA-3E828CF98D36}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,152 +1157,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Teacher_Details.xlsx
+++ b/Teacher_Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F459C0-61A2-4C16-821C-434CB6A3E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7C430-FC01-4D07-BE6C-6B634661F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="3" activeTab="4" xr2:uid="{90B41133-92FA-4E2A-9701-48DB32B639C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{90B41133-92FA-4E2A-9701-48DB32B639C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Details" sheetId="2" r:id="rId1"/>
@@ -64,15 +64,6 @@
     <t>Mohd Abdul Jawaad Hasaan</t>
   </si>
   <si>
-    <t>Teacher phone number</t>
-  </si>
-  <si>
-    <t>Teacher email address</t>
-  </si>
-  <si>
-    <t>Teacher DOB</t>
-  </si>
-  <si>
     <t>Teacher Name</t>
   </si>
   <si>
@@ -116,6 +107,15 @@
   </si>
   <si>
     <t>MATH</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Teacher email</t>
+  </si>
+  <si>
+    <t>Teacher mobile</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DB9195-ADD9-40AE-8B11-18D436CE23B6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,19 +524,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -647,25 +647,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -673,16 +673,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -691,19 +691,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -711,19 +711,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -731,19 +731,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -811,7 +811,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -821,25 +821,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -867,19 +867,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,19 +887,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,19 +907,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -927,19 +927,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -947,17 +947,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +987,7 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -997,22 +997,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1020,19 +1020,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1040,19 +1040,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,19 +1060,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1080,17 +1080,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,19 +1098,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1119,16 +1119,16 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35564DE9-FAFB-416B-A5AA-3E828CF98D36}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1158,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1168,22 +1168,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1191,19 +1191,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1211,19 +1211,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1231,19 +1231,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,19 +1251,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1271,19 +1271,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1291,19 +1291,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
